--- a/Lab/LBPAr/lbpa_dat.xlsx
+++ b/Lab/LBPAr/lbpa_dat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.shortcut-targets-by-id\0B1QSv8573gsoa1JwcUE4b1NRX2c\1. MAGISTER\2. DOCENCIA\2.2 CURSOS MGRA\MGR 622 Evaluación de Recursos Acuáticos (optativo)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiscubillos/01Cursos/EvalManPesqLim2024/Lab/LBPAr/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC332CF-49A6-6C4D-93B5-ECD361DA04FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="11840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LF data" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,20 @@
     <sheet name="starting values" sheetId="3" r:id="rId3"/>
     <sheet name="weighting factors" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,7 +625,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -911,19 +925,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -955,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>22</v>
       </c>
@@ -1019,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>24</v>
       </c>
@@ -1051,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>26</v>
       </c>
@@ -1083,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>28</v>
       </c>
@@ -1115,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1147,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>32</v>
       </c>
@@ -1179,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>34</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>36</v>
       </c>
@@ -1243,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>38</v>
       </c>
@@ -1275,7 +1289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>40</v>
       </c>
@@ -1307,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>42</v>
       </c>
@@ -1339,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>44</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>46</v>
       </c>
@@ -1403,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>48</v>
       </c>
@@ -1435,7 +1449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1467,7 +1481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>52</v>
       </c>
@@ -1499,7 +1513,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>54</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>56</v>
       </c>
@@ -1563,7 +1577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>58</v>
       </c>
@@ -1595,7 +1609,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>60</v>
       </c>
@@ -1627,7 +1641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>62</v>
       </c>
@@ -1659,7 +1673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>64</v>
       </c>
@@ -1691,7 +1705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>66</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>68</v>
       </c>
@@ -1755,7 +1769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>70</v>
       </c>
@@ -1787,7 +1801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>72</v>
       </c>
@@ -1819,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>74</v>
       </c>
@@ -1851,7 +1865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>76</v>
       </c>
@@ -1883,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>78</v>
       </c>
@@ -1915,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>80</v>
       </c>
@@ -1947,7 +1961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>82</v>
       </c>
@@ -1979,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>84</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>86</v>
       </c>
@@ -2043,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>88</v>
       </c>
@@ -2075,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>90</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>92</v>
       </c>
@@ -2139,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>94</v>
       </c>
@@ -2177,16 +2191,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2218,7 +2232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>96.4</v>
       </c>
@@ -2256,16 +2270,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2286,7 +2300,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>48</v>
       </c>
@@ -2307,9 +2321,9 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B3" s="1">
         <v>0.5</v>
@@ -2333,16 +2347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
